--- a/test1oldAppend-expected.xlsx
+++ b/test1oldAppend-expected.xlsx
@@ -631,12 +631,12 @@
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>ID</t>
+          <t>ID_1</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>Fruit</t>
+          <t>Fruit_1</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
@@ -646,7 +646,7 @@
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>Color</t>
+          <t>Color_1</t>
         </is>
       </c>
     </row>

--- a/test1oldAppend-expected.xlsx
+++ b/test1oldAppend-expected.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1-Appended" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1" refMode="A1" iterate="0" iterateCount="100" iterateDelta="0.001"/>
@@ -111,7 +111,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="general" vertical="bottom"/>
     </xf>
@@ -122,9 +122,6 @@
       <alignment horizontal="general" vertical="bottom"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="general" vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="general" vertical="bottom"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
@@ -527,104 +524,104 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:I21"/>
+  <dimension ref="A1:I19"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A1" colorId="64" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A4" activeCellId="0" sqref="A4"/>
+      <selection pane="topLeft" activeCell="A21" activeCellId="0" sqref="21:21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="11.6875" defaultRowHeight="12.8" zeroHeight="0" outlineLevelRow="0"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="11.70703125" defaultRowHeight="12.8" zeroHeight="0" outlineLevelRow="0"/>
   <sheetData>
-    <row r="1" ht="15" customHeight="1" s="11">
-      <c r="A1" s="12" t="inlineStr">
+    <row r="1" ht="15" customHeight="1" s="10">
+      <c r="A1" s="11" t="inlineStr">
         <is>
           <t>Example TableOld</t>
         </is>
       </c>
     </row>
-    <row r="2" ht="12.8" customHeight="1" s="11">
-      <c r="A2" s="13" t="inlineStr">
+    <row r="2" ht="12.8" customHeight="1" s="10">
+      <c r="A2" s="12" t="inlineStr">
         <is>
           <t>Diff test:</t>
         </is>
       </c>
-      <c r="B2" s="13" t="inlineStr">
+      <c r="B2" s="12" t="inlineStr">
         <is>
           <t>xltablediff.py  --key ID test1old.xlsx test1new.xlsx --out test1diff.xlsx</t>
         </is>
       </c>
     </row>
-    <row r="3" ht="12.8" customHeight="1" s="11">
-      <c r="A3" s="13" t="inlineStr">
+    <row r="3" ht="12.8" customHeight="1" s="10">
+      <c r="A3" s="12" t="inlineStr">
         <is>
           <t>Ignore test:</t>
         </is>
       </c>
-      <c r="B3" s="13" t="inlineStr">
+      <c r="B3" s="12" t="inlineStr">
         <is>
           <t>xltablediff.py  --key ID --ignore Color test1old.xlsx test1new.xlsx --out test1ignore.xlsx</t>
         </is>
       </c>
     </row>
-    <row r="4" ht="12.8" customHeight="1" s="11">
-      <c r="A4" s="14" t="inlineStr">
+    <row r="4" ht="12.8" customHeight="1" s="10">
+      <c r="A4" s="13" t="inlineStr">
         <is>
           <t>Merge test:</t>
         </is>
       </c>
-      <c r="B4" s="13" t="inlineStr">
+      <c r="B4" s="12" t="inlineStr">
         <is>
           <t>xltablediff.py  --key ID --merge Color test1old.xlsx test1new.xlsx --out test1merge.xlsx</t>
         </is>
       </c>
     </row>
-    <row r="5" ht="12.8" customHeight="1" s="11">
-      <c r="A5" s="13" t="inlineStr">
+    <row r="5" ht="12.8" customHeight="1" s="10">
+      <c r="A5" s="12" t="inlineStr">
         <is>
           <t>oldAppend test:</t>
         </is>
       </c>
-      <c r="B5" s="13" t="inlineStr">
+      <c r="B5" s="12" t="inlineStr">
         <is>
           <t>xltablediff.py  --key ID --oldAppend test1old.xlsx test1new.xlsx --out test1oldAppend.xlsx</t>
         </is>
       </c>
     </row>
-    <row r="6" ht="12.8" customHeight="1" s="11">
-      <c r="A6" s="15" t="inlineStr">
+    <row r="6" ht="12.8" customHeight="1" s="10">
+      <c r="A6" s="14" t="inlineStr">
         <is>
           <t>newAppend test:</t>
         </is>
       </c>
-      <c r="B6" s="13" t="inlineStr">
+      <c r="B6" s="12" t="inlineStr">
         <is>
           <t>xltablediff.py  --key ID --newAppend test1old.xlsx test1new.xlsx --out test1newAppend.xlsx</t>
         </is>
       </c>
     </row>
     <row r="7"/>
-    <row r="8" ht="12.8" customHeight="1" s="11">
-      <c r="A8" s="13" t="inlineStr">
+    <row r="8" ht="12.8" customHeight="1" s="10">
+      <c r="A8" s="12" t="inlineStr">
         <is>
           <t>Date</t>
         </is>
       </c>
-      <c r="B8" s="13" t="inlineStr">
+      <c r="B8" s="12" t="inlineStr">
         <is>
           <t>ID</t>
         </is>
       </c>
-      <c r="C8" s="13" t="inlineStr">
+      <c r="C8" s="12" t="inlineStr">
         <is>
           <t>Fruit</t>
         </is>
       </c>
-      <c r="D8" s="13" t="inlineStr">
+      <c r="D8" s="12" t="inlineStr">
         <is>
           <t>Origin</t>
         </is>
       </c>
-      <c r="E8" s="13" t="inlineStr">
+      <c r="E8" s="12" t="inlineStr">
         <is>
           <t>Color</t>
         </is>
@@ -650,24 +647,24 @@
         </is>
       </c>
     </row>
-    <row r="9" ht="12.8" customHeight="1" s="11">
-      <c r="A9" s="16" t="n">
+    <row r="9" ht="12.8" customHeight="1" s="10">
+      <c r="A9" s="15" t="n">
         <v>44866</v>
       </c>
-      <c r="B9" s="13" t="n">
+      <c r="B9" s="12" t="n">
         <v>7</v>
       </c>
-      <c r="C9" s="13" t="inlineStr">
+      <c r="C9" s="12" t="inlineStr">
         <is>
           <t>apricot</t>
         </is>
       </c>
-      <c r="D9" s="13" t="inlineStr">
+      <c r="D9" s="12" t="inlineStr">
         <is>
           <t>Washington</t>
         </is>
       </c>
-      <c r="E9" s="13" t="inlineStr">
+      <c r="E9" s="12" t="inlineStr">
         <is>
           <t>red-orange</t>
         </is>
@@ -685,57 +682,52 @@
           <t>roundish</t>
         </is>
       </c>
-      <c r="I9" t="inlineStr">
-        <is>
-          <t>red-orange</t>
-        </is>
-      </c>
-    </row>
-    <row r="10" ht="12.8" customHeight="1" s="11">
-      <c r="A10" s="16" t="n">
+    </row>
+    <row r="10" ht="12.8" customHeight="1" s="10">
+      <c r="A10" s="15" t="n">
         <v>44866</v>
       </c>
-      <c r="B10" s="13" t="n">
+      <c r="B10" s="12" t="n">
         <v>1</v>
       </c>
-      <c r="C10" s="13" t="inlineStr">
+      <c r="C10" s="12" t="inlineStr">
         <is>
           <t>apple</t>
         </is>
       </c>
-      <c r="D10" s="13" t="inlineStr">
+      <c r="D10" s="12" t="inlineStr">
         <is>
           <t>Maine</t>
         </is>
       </c>
-      <c r="E10" s="13" t="inlineStr">
+      <c r="E10" s="12" t="inlineStr">
         <is>
           <t>red</t>
         </is>
       </c>
-      <c r="F10" s="17" t="n"/>
-      <c r="G10" s="17" t="n"/>
-      <c r="H10" s="17" t="n"/>
-      <c r="I10" s="17" t="n"/>
-    </row>
-    <row r="11" ht="12.8" customHeight="1" s="11">
-      <c r="A11" s="16" t="n">
+      <c r="F10" s="16" t="n"/>
+      <c r="G10" s="16" t="n"/>
+      <c r="H10" s="16" t="n"/>
+      <c r="I10" s="16" t="n"/>
+    </row>
+    <row r="11" ht="12.8" customHeight="1" s="10">
+      <c r="A11" s="15" t="n">
         <v>44867</v>
       </c>
-      <c r="B11" s="13" t="n">
+      <c r="B11" s="12" t="n">
         <v>8</v>
       </c>
-      <c r="C11" s="13" t="inlineStr">
+      <c r="C11" s="12" t="inlineStr">
         <is>
           <t>peach</t>
         </is>
       </c>
-      <c r="D11" s="13" t="inlineStr">
+      <c r="D11" s="12" t="inlineStr">
         <is>
           <t>Georgia</t>
         </is>
       </c>
-      <c r="E11" s="13" t="inlineStr">
+      <c r="E11" s="12" t="inlineStr">
         <is>
           <t>yellow-pink</t>
         </is>
@@ -743,7 +735,7 @@
       <c r="F11" t="n">
         <v>8</v>
       </c>
-      <c r="G11" s="18" t="inlineStr">
+      <c r="G11" s="17" t="inlineStr">
         <is>
           <t>peach</t>
         </is>
@@ -759,24 +751,24 @@
         </is>
       </c>
     </row>
-    <row r="12" ht="12.8" customHeight="1" s="11">
-      <c r="A12" s="16" t="n">
+    <row r="12" ht="12.8" customHeight="1" s="10">
+      <c r="A12" s="15" t="n">
         <v>44867</v>
       </c>
-      <c r="B12" s="13" t="n">
+      <c r="B12" s="12" t="n">
         <v>5</v>
       </c>
-      <c r="C12" s="13" t="inlineStr">
+      <c r="C12" s="12" t="inlineStr">
         <is>
           <t>papaya</t>
         </is>
       </c>
-      <c r="D12" s="13" t="inlineStr">
+      <c r="D12" s="12" t="inlineStr">
         <is>
           <t>Fiji</t>
         </is>
       </c>
-      <c r="E12" s="13" t="inlineStr">
+      <c r="E12" s="12" t="inlineStr">
         <is>
           <t>pink</t>
         </is>
@@ -800,24 +792,24 @@
         </is>
       </c>
     </row>
-    <row r="13" ht="12.8" customHeight="1" s="11">
-      <c r="A13" s="16" t="n">
+    <row r="13" ht="12.8" customHeight="1" s="10">
+      <c r="A13" s="15" t="n">
         <v>44868</v>
       </c>
-      <c r="B13" s="13" t="n">
+      <c r="B13" s="12" t="n">
         <v>9</v>
       </c>
-      <c r="C13" s="19" t="inlineStr">
+      <c r="C13" s="18" t="inlineStr">
         <is>
           <t>plum</t>
         </is>
       </c>
-      <c r="D13" s="13" t="inlineStr">
+      <c r="D13" s="12" t="inlineStr">
         <is>
           <t>Alabama</t>
         </is>
       </c>
-      <c r="E13" s="13" t="inlineStr">
+      <c r="E13" s="12" t="inlineStr">
         <is>
           <t>purple</t>
         </is>
@@ -841,24 +833,24 @@
         </is>
       </c>
     </row>
-    <row r="14" ht="12.8" customHeight="1" s="11">
-      <c r="A14" s="16" t="n">
+    <row r="14" ht="12.8" customHeight="1" s="10">
+      <c r="A14" s="15" t="n">
         <v>44870</v>
       </c>
-      <c r="B14" s="13" t="n">
+      <c r="B14" s="12" t="n">
         <v>2</v>
       </c>
-      <c r="C14" s="13" t="inlineStr">
+      <c r="C14" s="12" t="inlineStr">
         <is>
           <t>banana</t>
         </is>
       </c>
-      <c r="D14" s="13" t="inlineStr">
+      <c r="D14" s="12" t="inlineStr">
         <is>
           <t>Chile</t>
         </is>
       </c>
-      <c r="E14" s="13" t="inlineStr">
+      <c r="E14" s="12" t="inlineStr">
         <is>
           <t>yellow</t>
         </is>
@@ -882,24 +874,24 @@
         </is>
       </c>
     </row>
-    <row r="15" ht="12.8" customHeight="1" s="11">
-      <c r="A15" s="16" t="n">
+    <row r="15" ht="12.8" customHeight="1" s="10">
+      <c r="A15" s="15" t="n">
         <v>44870</v>
       </c>
-      <c r="B15" s="13" t="n">
+      <c r="B15" s="12" t="n">
         <v>10</v>
       </c>
-      <c r="C15" s="13" t="inlineStr">
+      <c r="C15" s="12" t="inlineStr">
         <is>
           <t>pineapple</t>
         </is>
       </c>
-      <c r="D15" s="13" t="inlineStr">
+      <c r="D15" s="12" t="inlineStr">
         <is>
           <t>Hawaii</t>
         </is>
       </c>
-      <c r="E15" s="13" t="inlineStr">
+      <c r="E15" s="12" t="inlineStr">
         <is>
           <t>green-yellow</t>
         </is>
@@ -923,24 +915,24 @@
         </is>
       </c>
     </row>
-    <row r="16" ht="12.8" customHeight="1" s="11">
-      <c r="A16" s="16" t="n">
+    <row r="16" ht="12.8" customHeight="1" s="10">
+      <c r="A16" s="15" t="n">
         <v>44871</v>
       </c>
-      <c r="B16" s="13" t="n">
+      <c r="B16" s="12" t="n">
         <v>6</v>
       </c>
-      <c r="C16" s="13" t="inlineStr">
+      <c r="C16" s="12" t="inlineStr">
         <is>
           <t>tangerine</t>
         </is>
       </c>
-      <c r="D16" s="13" t="inlineStr">
+      <c r="D16" s="12" t="inlineStr">
         <is>
           <t>California</t>
         </is>
       </c>
-      <c r="E16" s="13" t="inlineStr">
+      <c r="E16" s="12" t="inlineStr">
         <is>
           <t>orange</t>
         </is>
@@ -964,24 +956,24 @@
         </is>
       </c>
     </row>
-    <row r="17" ht="12.8" customHeight="1" s="11">
-      <c r="A17" s="16" t="n">
+    <row r="17" ht="12.8" customHeight="1" s="10">
+      <c r="A17" s="15" t="n">
         <v>44872</v>
       </c>
-      <c r="B17" s="13" t="n">
+      <c r="B17" s="12" t="n">
         <v>11</v>
       </c>
-      <c r="C17" s="13" t="inlineStr">
+      <c r="C17" s="12" t="inlineStr">
         <is>
           <t>persimmon</t>
         </is>
       </c>
-      <c r="D17" s="13" t="inlineStr">
+      <c r="D17" s="12" t="inlineStr">
         <is>
           <t>Iran</t>
         </is>
       </c>
-      <c r="E17" s="13" t="inlineStr">
+      <c r="E17" s="12" t="inlineStr">
         <is>
           <t>deep orange</t>
         </is>
@@ -1005,51 +997,51 @@
         </is>
       </c>
     </row>
-    <row r="18" ht="12.8" customHeight="1" s="11">
-      <c r="A18" s="16" t="n">
+    <row r="18" ht="12.8" customHeight="1" s="10">
+      <c r="A18" s="15" t="n">
         <v>44885</v>
       </c>
-      <c r="B18" s="13" t="n">
+      <c r="B18" s="12" t="n">
         <v>3</v>
       </c>
-      <c r="C18" s="13" t="inlineStr">
+      <c r="C18" s="12" t="inlineStr">
         <is>
           <t>coconut</t>
         </is>
       </c>
-      <c r="D18" s="13" t="inlineStr">
+      <c r="D18" s="12" t="inlineStr">
         <is>
           <t>Hawaii</t>
         </is>
       </c>
-      <c r="E18" s="13" t="inlineStr">
+      <c r="E18" s="12" t="inlineStr">
         <is>
           <t>brown</t>
         </is>
       </c>
-      <c r="F18" s="17" t="n"/>
-      <c r="G18" s="17" t="n"/>
-      <c r="H18" s="17" t="n"/>
-      <c r="I18" s="17" t="n"/>
-    </row>
-    <row r="19" ht="12.8" customHeight="1" s="11">
-      <c r="A19" s="16" t="n">
+      <c r="F18" s="16" t="n"/>
+      <c r="G18" s="16" t="n"/>
+      <c r="H18" s="16" t="n"/>
+      <c r="I18" s="16" t="n"/>
+    </row>
+    <row r="19" ht="12.8" customHeight="1" s="10">
+      <c r="A19" s="15" t="n">
         <v>44886</v>
       </c>
-      <c r="B19" s="13" t="n">
+      <c r="B19" s="12" t="n">
         <v>4</v>
       </c>
-      <c r="C19" s="13" t="inlineStr">
+      <c r="C19" s="12" t="inlineStr">
         <is>
           <t>dried mango</t>
         </is>
       </c>
-      <c r="D19" s="13" t="inlineStr">
+      <c r="D19" s="12" t="inlineStr">
         <is>
           <t>Thailand</t>
         </is>
       </c>
-      <c r="E19" s="13" t="n"/>
+      <c r="E19" s="12" t="n"/>
       <c r="F19" t="n">
         <v>4</v>
       </c>
@@ -1069,14 +1061,8 @@
         </is>
       </c>
     </row>
-    <row r="20" ht="12.8" customHeight="1" s="11"/>
-    <row r="21" ht="12.8" customHeight="1" s="11">
-      <c r="A21" s="13" t="inlineStr">
-        <is>
-          <t>Trailing row here</t>
-        </is>
-      </c>
-    </row>
+    <row r="20" ht="12.8" customHeight="1" s="10"/>
+    <row r="21" ht="12.8" customHeight="1" s="10"/>
   </sheetData>
   <printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0" gridLinesSet="1"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
